--- a/va_facility_data_2025-02-20/Tifton VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Tifton%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Tifton VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Tifton%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R0b4d99943d7a46e7bd3aee217bf68eb9"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9e978ac86f1349a38a075f1ed1c6b9e1"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1326e8f90f334201b68d8ab8d84891e9"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Ra3aa84f689914c09bd32ce3fbc52728e"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rfdb8a0fa6cae4ead9ca6e0a000d76e9e"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R667223c995f7485486d974251d6e2b38"/>
   </x:sheets>
 </x:workbook>
 </file>
